--- a/data/coding check.xlsx
+++ b/data/coding check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyichu/Sites/recursion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE905632-5956-2B45-AF8D-9BAEC12BF06C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33F2230-9E90-6243-A749-EA5636324C86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="4900" windowWidth="29880" windowHeight="16440" xr2:uid="{1296B5FB-DC62-BF45-ADFB-1CA9B647077F}"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="28800" windowHeight="16440" xr2:uid="{1296B5FB-DC62-BF45-ADFB-1CA9B647077F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,25 +467,25 @@
     <t>recoded</t>
   </si>
   <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>should not get decade prompt</t>
+  </si>
+  <si>
+    <t>max 99</t>
+  </si>
+  <si>
+    <t>Sup.times</t>
+  </si>
+  <si>
+    <t>only 30 provided</t>
+  </si>
+  <si>
+    <t>max 99, feedback on last three decades counts as prompt</t>
+  </si>
+  <si>
     <t>self-corrected</t>
-  </si>
-  <si>
-    <t>Justification</t>
-  </si>
-  <si>
-    <t>should not get decade prompt</t>
-  </si>
-  <si>
-    <t>max 99</t>
-  </si>
-  <si>
-    <t>Sup.times</t>
-  </si>
-  <si>
-    <t>only 30 provided</t>
-  </si>
-  <si>
-    <t>max 99, feedback on last three decades counts as prompt</t>
   </si>
 </sst>
 </file>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41BBB65-DCD7-4747-A633-8992A7B33AF7}">
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="N121" sqref="N121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,10 +1042,10 @@
         <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -3595,7 +3595,7 @@
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -3995,7 +3995,7 @@
         <v>6</v>
       </c>
       <c r="N82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -4035,7 +4035,7 @@
         <v>6</v>
       </c>
       <c r="N83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -4112,7 +4112,7 @@
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -4340,7 +4340,7 @@
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -4497,7 +4497,7 @@
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -4657,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -4734,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -4854,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -4974,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -5014,7 +5014,7 @@
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -5128,7 +5128,7 @@
         <v>2</v>
       </c>
       <c r="N111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -5365,7 +5365,7 @@
         <v>5</v>
       </c>
       <c r="N117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -5485,7 +5485,7 @@
         <v>3</v>
       </c>
       <c r="N120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
@@ -5645,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="N124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -5685,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="N125" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="N129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="N130" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="N131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="N132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -6005,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="N133" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -6045,7 +6045,7 @@
         <v>2</v>
       </c>
       <c r="N134" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="N136" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
